--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17568</v>
+        <v>17582.04134015827</v>
       </c>
       <c r="C2">
-        <v>37434</v>
+        <v>37516.42916546755</v>
       </c>
       <c r="D2">
-        <v>72897</v>
+        <v>73088.57832048151</v>
       </c>
       <c r="E2">
-        <v>110400</v>
+        <v>110628.2963862276</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>180482</v>
+        <v>180595.7446954236</v>
       </c>
       <c r="C3">
-        <v>334856</v>
+        <v>335812.3065018094</v>
       </c>
       <c r="D3">
-        <v>406640</v>
+        <v>407641.3939537266</v>
       </c>
       <c r="E3">
-        <v>452435</v>
+        <v>453676.8843593199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19611</v>
+        <v>19621.97193034408</v>
       </c>
       <c r="C4">
-        <v>37247</v>
+        <v>37299.8589552691</v>
       </c>
       <c r="D4">
-        <v>59454</v>
+        <v>59577.15749443948</v>
       </c>
       <c r="E4">
-        <v>76965</v>
+        <v>77209.58902615773</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105888</v>
+        <v>105940.9511495386</v>
       </c>
       <c r="C6">
-        <v>134688</v>
+        <v>135029.4366023016</v>
       </c>
       <c r="D6">
-        <v>124040</v>
+        <v>124298.172958796</v>
       </c>
       <c r="E6">
-        <v>101706</v>
+        <v>101988.9061478788</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10960</v>
+        <v>10963.85102564702</v>
       </c>
       <c r="C7">
-        <v>21990</v>
+        <v>22019.45082437705</v>
       </c>
       <c r="D7">
-        <v>24266</v>
+        <v>24319.82066029942</v>
       </c>
       <c r="E7">
-        <v>26460</v>
+        <v>26523.24176013275</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>811780</v>
+        <v>812445.7586883416</v>
       </c>
       <c r="C9">
-        <v>1302821</v>
+        <v>1305841.298497807</v>
       </c>
       <c r="D9">
-        <v>1766806</v>
+        <v>1771396.520995631</v>
       </c>
       <c r="E9">
-        <v>2178990</v>
+        <v>2185011.725311886</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>902436</v>
+        <v>900744.5176046697</v>
       </c>
       <c r="C12">
-        <v>1064796</v>
+        <v>1064663.236149865</v>
       </c>
       <c r="D12">
-        <v>947844</v>
+        <v>948598.7011254284</v>
       </c>
       <c r="E12">
-        <v>724880</v>
+        <v>725999.6475283061</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17582.04134015827</v>
+        <v>17534.69286527517</v>
       </c>
       <c r="C2">
-        <v>37516.42916546755</v>
+        <v>37428.36890565915</v>
       </c>
       <c r="D2">
-        <v>73088.57832048151</v>
+        <v>72940.47656631893</v>
       </c>
       <c r="E2">
-        <v>110628.2963862276</v>
+        <v>110420.1622308841</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>180595.7446954236</v>
+        <v>180330.6679746064</v>
       </c>
       <c r="C3">
-        <v>335812.3065018094</v>
+        <v>335386.9156849796</v>
       </c>
       <c r="D3">
-        <v>407641.3939537266</v>
+        <v>407095.7643066294</v>
       </c>
       <c r="E3">
-        <v>453676.8843593199</v>
+        <v>452977.2437251885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19621.97193034408</v>
+        <v>19667.09567762947</v>
       </c>
       <c r="C4">
-        <v>37299.8589552691</v>
+        <v>37369.1015187013</v>
       </c>
       <c r="D4">
-        <v>59577.15749443948</v>
+        <v>59618.34529532547</v>
       </c>
       <c r="E4">
-        <v>77209.58902615773</v>
+        <v>77206.95400038443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105940.9511495386</v>
+        <v>105936.6863591248</v>
       </c>
       <c r="C6">
-        <v>135029.4366023016</v>
+        <v>135014.8700967542</v>
       </c>
       <c r="D6">
-        <v>124298.172958796</v>
+        <v>124254.8461279849</v>
       </c>
       <c r="E6">
-        <v>101988.9061478788</v>
+        <v>101923.4521199962</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10963.85102564702</v>
+        <v>10984.49438409729</v>
       </c>
       <c r="C7">
-        <v>22019.45082437705</v>
+        <v>22040.59410162596</v>
       </c>
       <c r="D7">
-        <v>24319.82066029942</v>
+        <v>24315.46640718524</v>
       </c>
       <c r="E7">
-        <v>26523.24176013275</v>
+        <v>26494.79899188094</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>812445.7586883416</v>
+        <v>810325.4609711047</v>
       </c>
       <c r="C9">
-        <v>1305841.298497807</v>
+        <v>1302693.765400807</v>
       </c>
       <c r="D9">
-        <v>1771396.520995631</v>
+        <v>1766895.429301082</v>
       </c>
       <c r="E9">
-        <v>2185011.725311886</v>
+        <v>2178879.533448599</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>900744.5176046697</v>
+        <v>869058.5042791282</v>
       </c>
       <c r="C12">
-        <v>1064663.236149865</v>
+        <v>1026488.819978358</v>
       </c>
       <c r="D12">
-        <v>948598.7011254284</v>
+        <v>921807.9964264584</v>
       </c>
       <c r="E12">
-        <v>725999.6475283061</v>
+        <v>712845.9476684948</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
@@ -394,10 +394,10 @@
         <v>37428.36890565915</v>
       </c>
       <c r="D2">
-        <v>72940.47656631893</v>
+        <v>72940.47656631895</v>
       </c>
       <c r="E2">
-        <v>110420.1622308841</v>
+        <v>110420.1622308842</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,13 +405,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>180330.6679746064</v>
+        <v>180330.6679746063</v>
       </c>
       <c r="C3">
-        <v>335386.9156849796</v>
+        <v>335386.9156849797</v>
       </c>
       <c r="D3">
-        <v>407095.7643066294</v>
+        <v>407095.7643066295</v>
       </c>
       <c r="E3">
         <v>452977.2437251885</v>
@@ -425,7 +425,7 @@
         <v>19667.09567762947</v>
       </c>
       <c r="C4">
-        <v>37369.1015187013</v>
+        <v>37369.10151870131</v>
       </c>
       <c r="D4">
         <v>59618.34529532547</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>810325.4609711047</v>
+        <v>810325.4609711046</v>
       </c>
       <c r="C9">
         <v>1302693.765400807</v>
       </c>
       <c r="D9">
-        <v>1766895.429301082</v>
+        <v>1766895.429301083</v>
       </c>
       <c r="E9">
         <v>2178879.533448599</v>
